--- a/output/fit_clients/fit_round_341.xlsx
+++ b/output/fit_clients/fit_round_341.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1690157230.207642</v>
+        <v>1612097036.335297</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08816165438508056</v>
+        <v>0.0715519925107327</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03395686649685532</v>
+        <v>0.04175436095675969</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>845078569.0733743</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1776763960.00057</v>
+        <v>2539510851.122338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1649671613948438</v>
+        <v>0.1763532245203073</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0409586911076999</v>
+        <v>0.04214935226584723</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>888381985.4900411</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4687296655.177426</v>
+        <v>3804631336.506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1396851434948635</v>
+        <v>0.1178788431946798</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02351668414807678</v>
+        <v>0.03362798583467903</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>123</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2343648390.457609</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3913319740.296939</v>
+        <v>2632699581.407967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07296402319935366</v>
+        <v>0.07281202074298811</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03257683969759906</v>
+        <v>0.03124029819265426</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>128</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1956659879.556076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2213943508.82858</v>
+        <v>2604241678.643928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09427785531155929</v>
+        <v>0.08983174683806974</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03577778421105075</v>
+        <v>0.04609022395951437</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1106971760.861741</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3021235659.080508</v>
+        <v>3042911732.467892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08930920457670999</v>
+        <v>0.09818784118531251</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04037226359289546</v>
+        <v>0.04500891611965237</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>104</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1510617792.381851</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3984021827.904783</v>
+        <v>3818830597.58988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1332652340212918</v>
+        <v>0.1492925708602479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02561106924716061</v>
+        <v>0.02299629402202807</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>108</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1992011072.066373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1945330358.033337</v>
+        <v>1632637352.856213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1272578849596027</v>
+        <v>0.1297730367789064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03694605723520022</v>
+        <v>0.02294056407120345</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>972665213.2228646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4344303935.252091</v>
+        <v>3809499219.649018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.18893417553939</v>
+        <v>0.175424448719231</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04066935778161946</v>
+        <v>0.03639432103369331</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>143</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2172152016.211127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3538112366.736784</v>
+        <v>3710214229.907203</v>
       </c>
       <c r="F11" t="n">
-        <v>0.129345810305034</v>
+        <v>0.1179055946020174</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03141839924201363</v>
+        <v>0.03121117700526486</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>141</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1769056163.814913</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3044696304.049866</v>
+        <v>2549492617.44335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1795434462231718</v>
+        <v>0.1935132474934424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03851767728899336</v>
+        <v>0.03734004323024298</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>117</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1522348174.147463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3817366285.707531</v>
+        <v>5092662171.898236</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08513561511392272</v>
+        <v>0.09100286964283616</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02758871446506345</v>
+        <v>0.02845886849644413</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1908683207.066164</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2692681666.646701</v>
+        <v>2819065470.737983</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1564041621795267</v>
+        <v>0.1398647423799056</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03328500500629079</v>
+        <v>0.028199879797307</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1346340890.027702</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1416909396.056776</v>
+        <v>1155838069.480545</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09519327397109056</v>
+        <v>0.1068066337986656</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04561990706774646</v>
+        <v>0.04407441838390879</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>708454764.695616</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2378400151.840307</v>
+        <v>2624243886.610937</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1023062580438449</v>
+        <v>0.08760939473206478</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04390627484593951</v>
+        <v>0.04729433043899145</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>68</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1189200117.602949</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3482458664.531025</v>
+        <v>3955227600.617141</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1641413755301396</v>
+        <v>0.1494277780211337</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03938571875098441</v>
+        <v>0.05026632337649063</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>99</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1741229392.407493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2641621507.614752</v>
+        <v>2621471545.586987</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1267836042747234</v>
+        <v>0.1168275898746642</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0239168428995951</v>
+        <v>0.0225292432658201</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>112</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1320810809.999665</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>907938884.2452334</v>
+        <v>1335300437.519122</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1381989806418082</v>
+        <v>0.1589157095980027</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01657805988852347</v>
+        <v>0.02652951826281593</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>453969448.9508579</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2211246593.102015</v>
+        <v>2592012946.847066</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1603759578123907</v>
+        <v>0.1156272151849393</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03056636930615855</v>
+        <v>0.02061938443312041</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1105623300.409409</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2182062384.813708</v>
+        <v>1797109669.3926</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1003506665243355</v>
+        <v>0.08325266230284015</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03490228429528827</v>
+        <v>0.03501848166754763</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1091031210.963191</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2845633377.092627</v>
+        <v>3889576828.798424</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09560179869695253</v>
+        <v>0.08928563089104923</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04079900817284305</v>
+        <v>0.03660342155023909</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1422816759.328289</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1189135810.689327</v>
+        <v>1227631636.793918</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1312416184314541</v>
+        <v>0.1360594432702266</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04503305865160161</v>
+        <v>0.0333393576510345</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>594567943.6723375</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2498264447.152381</v>
+        <v>3060413207.60185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1294365835076019</v>
+        <v>0.1461607804179036</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02963597138540474</v>
+        <v>0.0292266105613799</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1249132292.560228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1393397153.274605</v>
+        <v>1323549590.041616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07984514165177112</v>
+        <v>0.1115809971298683</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02160238826545722</v>
+        <v>0.02707514470890634</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>696698550.137534</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>992827604.0855875</v>
+        <v>1381459162.602617</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1205361343328251</v>
+        <v>0.1045639412888434</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03428403111408839</v>
+        <v>0.03861377821500011</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>496413772.3856642</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3050693106.102683</v>
+        <v>3364551815.453354</v>
       </c>
       <c r="F27" t="n">
-        <v>0.150197177099728</v>
+        <v>0.1472493022435922</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02653621481308245</v>
+        <v>0.02172600846280658</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1525346610.3634</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3072359933.811688</v>
+        <v>2379493814.685705</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09407767631298251</v>
+        <v>0.118299891824747</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03180159634682798</v>
+        <v>0.04958200517231208</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>111</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1536179984.420934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4100732999.578136</v>
+        <v>5459777216.716371</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09353939554588253</v>
+        <v>0.1277498876696419</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03560216210596387</v>
+        <v>0.0320742389782575</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>150</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2050366509.713345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2197648179.216404</v>
+        <v>2075512038.995082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1193984011971307</v>
+        <v>0.09029713535581844</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02786112524703813</v>
+        <v>0.02567043049231255</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1098824149.617926</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1420762323.567659</v>
+        <v>1269469623.129323</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07215640435492562</v>
+        <v>0.1002720256453409</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03692717864558931</v>
+        <v>0.04441034417412714</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>710381061.2816273</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1706103079.184752</v>
+        <v>1425325670.3825</v>
       </c>
       <c r="F32" t="n">
-        <v>0.101914803829114</v>
+        <v>0.120963783239232</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02976136856412015</v>
+        <v>0.03438531636489124</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>853051650.6498985</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2903451182.570378</v>
+        <v>2264310405.421749</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1792946072745714</v>
+        <v>0.1603906280560953</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04988404187301973</v>
+        <v>0.04557826552715581</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>101</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1451725595.165371</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1332088076.297639</v>
+        <v>1083405915.928651</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07922122262311994</v>
+        <v>0.1099356967646475</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0247208570289798</v>
+        <v>0.02455764290398677</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>666044021.5330435</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1310325387.994392</v>
+        <v>1188039881.088857</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1029859033711053</v>
+        <v>0.0820581193657838</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04162390726447288</v>
+        <v>0.04444555776901209</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>655162644.527454</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3175018235.90346</v>
+        <v>2669888755.293634</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1407573363413915</v>
+        <v>0.1212889518779598</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01842461968941853</v>
+        <v>0.02593780149335929</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>86</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1587509085.868151</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2449140248.051818</v>
+        <v>2916745735.154972</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07118685016334164</v>
+        <v>0.08892043366846263</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03443797689031816</v>
+        <v>0.02833985701437108</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1224570213.089711</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1908096847.113445</v>
+        <v>1988947050.472725</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07922538827642783</v>
+        <v>0.08509196949511651</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03587064303535985</v>
+        <v>0.03303467478927596</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>954048415.1783779</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1832735117.589262</v>
+        <v>1518920600.607436</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1891940626909588</v>
+        <v>0.1793356104068174</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02924966771203019</v>
+        <v>0.02753455970332536</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>916367578.7354674</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1426948252.930046</v>
+        <v>1523443275.642505</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1323670879996382</v>
+        <v>0.09978571934930675</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0597753588063586</v>
+        <v>0.04654764394787425</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>713474110.9602981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2761434607.006038</v>
+        <v>2571912795.062129</v>
       </c>
       <c r="F41" t="n">
-        <v>0.118695601929006</v>
+        <v>0.1590211290278997</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04583011504763693</v>
+        <v>0.03697662308942798</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>86</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1380717303.198852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2659246130.631978</v>
+        <v>3418040841.858891</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0786706859586315</v>
+        <v>0.1088813290643603</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0324317394798679</v>
+        <v>0.03274692489847444</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1329623002.331652</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2135280299.457745</v>
+        <v>3017030914.513786</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1846947270902405</v>
+        <v>0.1459306245528505</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01720138258902921</v>
+        <v>0.01673210438025605</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>123</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1067640235.085599</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1917571122.014159</v>
+        <v>2240723971.828228</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09302621634672512</v>
+        <v>0.09373674871856089</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03566875935598612</v>
+        <v>0.02523319114648744</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>958785650.903632</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2158930001.855137</v>
+        <v>1941676272.47943</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1564122166637157</v>
+        <v>0.1393181242188563</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03465342697211616</v>
+        <v>0.03627516478378416</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1079465007.823391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4758364734.570585</v>
+        <v>4508514405.616342</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1312374150660995</v>
+        <v>0.1314472506882701</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05611156092209905</v>
+        <v>0.05489715072593543</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>121</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2379182380.242242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4962122599.455991</v>
+        <v>5003795264.477712</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1894004425072275</v>
+        <v>0.1991680068595748</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05055840914882518</v>
+        <v>0.05533088508635148</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>91</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2481061353.377061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3242745082.245019</v>
+        <v>3868504877.660633</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1014174691517533</v>
+        <v>0.1005907368386006</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03130432816996843</v>
+        <v>0.03331420707490605</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1621372619.498666</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1562882142.980846</v>
+        <v>1823408257.864385</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1593779363483884</v>
+        <v>0.1626913990734507</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03662678077671098</v>
+        <v>0.02928037964944916</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>781441093.7562176</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4164046257.256843</v>
+        <v>2922431277.355642</v>
       </c>
       <c r="F50" t="n">
-        <v>0.150261684152557</v>
+        <v>0.1289353335502064</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04088351304188917</v>
+        <v>0.05002606103608844</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>116</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2082023105.643215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1009347847.481489</v>
+        <v>1084426825.988049</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193577668446445</v>
+        <v>0.1718984275030593</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03645943698071876</v>
+        <v>0.05064838840549107</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>504674006.1904243</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3592673238.459902</v>
+        <v>5243003726.866736</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1143941766771612</v>
+        <v>0.1099327788572285</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04651671976402758</v>
+        <v>0.0523612450552234</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>140</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1796336699.689475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3584764622.856381</v>
+        <v>2696173954.632607</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1567310636185712</v>
+        <v>0.1673226698455503</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03344635925757903</v>
+        <v>0.0246309290967349</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>97</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1792382303.51087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3144998836.648056</v>
+        <v>3278352129.419345</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1450409698811525</v>
+        <v>0.131680141480768</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05260197818362786</v>
+        <v>0.05056227049116313</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>112</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1572499415.260337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4523554680.774671</v>
+        <v>3908544914.403347</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2022722724952826</v>
+        <v>0.2158628471201086</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03098243767646546</v>
+        <v>0.02372482612736783</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2261777338.431525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1334054642.838216</v>
+        <v>1181802345.387198</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1003967149838597</v>
+        <v>0.09948532754230029</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04089172519374012</v>
+        <v>0.05522837349813033</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>667027388.2696706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3207447912.815395</v>
+        <v>2882905357.791859</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1676340544452205</v>
+        <v>0.1273779381367601</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02251030209947292</v>
+        <v>0.02553952432120668</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>108</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1603723978.237036</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1180089926.245114</v>
+        <v>1859264441.178272</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1613022292484588</v>
+        <v>0.1732254478564447</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02745200491482614</v>
+        <v>0.03822067259255784</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>590045023.4542855</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4615637813.18333</v>
+        <v>5006812921.330947</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1210606136971061</v>
+        <v>0.08937777230504813</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03943872378710491</v>
+        <v>0.033513819477943</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2307818852.847488</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3203246936.247227</v>
+        <v>2936644164.516108</v>
       </c>
       <c r="F60" t="n">
-        <v>0.158285619416168</v>
+        <v>0.1264173957063238</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0227438243727707</v>
+        <v>0.02073262616291496</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>105</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1601623559.803318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2554584078.231232</v>
+        <v>3039060290.480136</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1765462359761616</v>
+        <v>0.1675182612029342</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0216174594430904</v>
+        <v>0.02895992580436785</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>116</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1277292061.59506</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1682182927.195549</v>
+        <v>1895189856.086959</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1656924406092375</v>
+        <v>0.1834464946415508</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03511880364106287</v>
+        <v>0.03336704610136446</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>841091473.9651194</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5426416242.14289</v>
+        <v>5337797791.371549</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09159536316049309</v>
+        <v>0.08774729936893608</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03820361610264297</v>
+        <v>0.04545329304586734</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2713208119.815566</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3578630976.569987</v>
+        <v>5121994611.85212</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1559403438111155</v>
+        <v>0.1803061280815719</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02162268556898537</v>
+        <v>0.02751605728642292</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>106</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1789315494.519546</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3912733964.988496</v>
+        <v>4609339892.997767</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1632529759865748</v>
+        <v>0.1161763445650854</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02389732761256358</v>
+        <v>0.0246830636698799</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>123</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1956367006.296159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4392970915.012069</v>
+        <v>4525495398.012548</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1462851516401649</v>
+        <v>0.1288346976552692</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04391563188420267</v>
+        <v>0.03331370660607171</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>99</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2196485452.151406</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2719599460.367742</v>
+        <v>2502010899.453753</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08546859807927841</v>
+        <v>0.06886826894648912</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04261138416418729</v>
+        <v>0.03311331083303205</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>110</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1359799772.21752</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4639983865.281491</v>
+        <v>4577423486.669024</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1604862178288092</v>
+        <v>0.1536787886053253</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04001318935693065</v>
+        <v>0.03775478895192844</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>113</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2319991967.214168</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1549655077.484755</v>
+        <v>1590400200.805561</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1588762709495674</v>
+        <v>0.1556576934412955</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04176723270543048</v>
+        <v>0.03901332900762704</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>774827485.4623017</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3387560762.405747</v>
+        <v>3479922651.631697</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08084693322725665</v>
+        <v>0.09055632900148895</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0488620897883137</v>
+        <v>0.04303229727449404</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>97</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1693780383.495408</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3447556550.198264</v>
+        <v>5268968085.935104</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1736368877255146</v>
+        <v>0.1575873883900842</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02213351467503408</v>
+        <v>0.03185774117500099</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>125</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1723778264.889575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1761767616.187339</v>
+        <v>1774746010.313864</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1066752407361428</v>
+        <v>0.07039783965978692</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04335653132868915</v>
+        <v>0.04103130606212186</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>880883792.8649653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2969070697.753339</v>
+        <v>3538491760.011736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1008672064681894</v>
+        <v>0.08105984486621046</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03687867599722451</v>
+        <v>0.04976208048575419</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>130</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1484535347.707157</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3209388612.823067</v>
+        <v>3940798283.284455</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1520129710246193</v>
+        <v>0.1404321813923016</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02366494259528928</v>
+        <v>0.02374312078447007</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>116</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1604694353.712781</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1715063442.481363</v>
+        <v>1522654884.581639</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1369472255691153</v>
+        <v>0.1372584315833309</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03563252676195388</v>
+        <v>0.02420072873419304</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>857531712.113606</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4236061909.204822</v>
+        <v>5005755237.251342</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1225124996697313</v>
+        <v>0.1032096625477293</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02157863025400068</v>
+        <v>0.02066788064551926</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2118030949.241338</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1417299773.396342</v>
+        <v>2005583191.379153</v>
       </c>
       <c r="F77" t="n">
-        <v>0.163703098775676</v>
+        <v>0.1703322136645341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02589410556653536</v>
+        <v>0.02841852841040619</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>708649862.1717016</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3692284836.829186</v>
+        <v>3220726185.983347</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09753290558496062</v>
+        <v>0.09152914858244775</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05558775497913135</v>
+        <v>0.04388080199721708</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>118</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1846142406.185282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1404112881.306848</v>
+        <v>1829352536.999768</v>
       </c>
       <c r="F79" t="n">
-        <v>0.177291346361678</v>
+        <v>0.1504724966478121</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03639158578993053</v>
+        <v>0.03297640396166492</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>702056458.1066668</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5589500093.095448</v>
+        <v>5488478762.75287</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050606273068799</v>
+        <v>0.08207240273602841</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03065320013982881</v>
+        <v>0.02652093265270719</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2794750125.079006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3395222414.16812</v>
+        <v>3361270121.668659</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1271725100375607</v>
+        <v>0.09037841949888606</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02666431611994727</v>
+        <v>0.02248276109653997</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1697611147.8299</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3638638604.737739</v>
+        <v>5608874720.813084</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1930074213845209</v>
+        <v>0.155705809207355</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02211340074317403</v>
+        <v>0.01976945148366176</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>120</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1819319362.306836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1774810943.013017</v>
+        <v>1985723886.080954</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1550530501888665</v>
+        <v>0.1197834696991204</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02869572054547121</v>
+        <v>0.02781807851020796</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>887405428.7656548</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2483180207.400996</v>
+        <v>1813275462.633204</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07550500698460982</v>
+        <v>0.1208559427709498</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03886531717963713</v>
+        <v>0.03288785977944395</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1241590038.000619</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2511205421.155266</v>
+        <v>2911314749.36615</v>
       </c>
       <c r="F85" t="n">
-        <v>0.149779577599512</v>
+        <v>0.1735576800843844</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04405364664601121</v>
+        <v>0.04405520838668051</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>128</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1255602716.794856</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2341188532.018381</v>
+        <v>2417806349.593212</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1319407732094851</v>
+        <v>0.1101115381506712</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02706402800200373</v>
+        <v>0.0179386051532244</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1170594341.097544</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1179372439.642999</v>
+        <v>911948088.2324412</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1351215720493786</v>
+        <v>0.167768939184413</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04384113614046015</v>
+        <v>0.04009321246948922</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>589686270.1236495</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2642470326.202202</v>
+        <v>3653146927.924085</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1218575762530513</v>
+        <v>0.1078163587901347</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0314744177049322</v>
+        <v>0.0340889903329181</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>135</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1321235158.215672</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2144078066.070338</v>
+        <v>2859619288.692945</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1564041439578623</v>
+        <v>0.1160051020588606</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02670477935090979</v>
+        <v>0.03223379063635455</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>116</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1072039133.892372</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2171501394.018644</v>
+        <v>1894655261.267887</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09354445160470246</v>
+        <v>0.1092388031207043</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04852921298638489</v>
+        <v>0.05000281434550172</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1085750798.633399</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2015435421.709975</v>
+        <v>1371100291.782022</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1726433897373861</v>
+        <v>0.1230782705678654</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03977996340552023</v>
+        <v>0.03756728969702502</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1007717681.073038</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2848086218.779908</v>
+        <v>2591127136.056193</v>
       </c>
       <c r="F92" t="n">
-        <v>0.108636824276028</v>
+        <v>0.06634116840885178</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02942342717485987</v>
+        <v>0.03886338872007985</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>92</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1424043119.626467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3337839963.356474</v>
+        <v>3739470783.714956</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1357010947696148</v>
+        <v>0.1399357603560816</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04576527750230433</v>
+        <v>0.04247829540575082</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1668920025.136298</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1953768109.149675</v>
+        <v>2014968915.876575</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12808873537746</v>
+        <v>0.1596433829521535</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03605794635789011</v>
+        <v>0.03039628124534099</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>976884046.8879026</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2313599169.508559</v>
+        <v>2215427462.888803</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08923511477227331</v>
+        <v>0.1294633403832814</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0342574517399141</v>
+        <v>0.04323905773719652</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1156799634.392632</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2143022967.769413</v>
+        <v>1894181935.650779</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1046315076264928</v>
+        <v>0.1026895432156708</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0343709660420825</v>
+        <v>0.04508426312171731</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1071511455.596588</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5021877705.152672</v>
+        <v>5149147245.755309</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1220676591307217</v>
+        <v>0.1411785028602267</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02439529205132526</v>
+        <v>0.02011274621973699</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>110</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2510938991.15216</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3941700269.162836</v>
+        <v>2853235722.640878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08857854946883056</v>
+        <v>0.08674691912580801</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02856395548147178</v>
+        <v>0.03256350371987566</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1970850183.127652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2785745193.450952</v>
+        <v>2165960817.140427</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1195639763657249</v>
+        <v>0.1190821037868937</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02148476970088883</v>
+        <v>0.02936285677027609</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1392872567.146931</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3950077884.948678</v>
+        <v>3629736872.606781</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1782021052403828</v>
+        <v>0.1298972661951265</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02372244390843179</v>
+        <v>0.01984595809810612</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1975039009.17756</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3606638411.849679</v>
+        <v>3277711738.974702</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1429995064983967</v>
+        <v>0.1935578148418042</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0579707440781532</v>
+        <v>0.03828159600595566</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>137</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1803319375.143944</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_341.xlsx
+++ b/output/fit_clients/fit_round_341.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1612097036.335297</v>
+        <v>2185920238.001482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0715519925107327</v>
+        <v>0.0824628816587199</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04175436095675969</v>
+        <v>0.03271131254814755</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2539510851.122338</v>
+        <v>1948084275.053186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1763532245203073</v>
+        <v>0.1416275806617742</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04214935226584723</v>
+        <v>0.0395110728458767</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3804631336.506</v>
+        <v>4707927643.037374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1178788431946798</v>
+        <v>0.1560707677696888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03362798583467903</v>
+        <v>0.03230968733156171</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2632699581.407967</v>
+        <v>3329177924.161713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07281202074298811</v>
+        <v>0.09801580615287604</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03124029819265426</v>
+        <v>0.03903440116065853</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2604241678.643928</v>
+        <v>2695575238.906192</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08983174683806974</v>
+        <v>0.1134876533776825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04609022395951437</v>
+        <v>0.04758415479261549</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3042911732.467892</v>
+        <v>2561284682.618494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09818784118531251</v>
+        <v>0.06610638734436125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04500891611965237</v>
+        <v>0.04533613550500917</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3818830597.58988</v>
+        <v>3359379867.218041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1492925708602479</v>
+        <v>0.2071676540714129</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02299629402202807</v>
+        <v>0.03268382314893727</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1632637352.856213</v>
+        <v>2055752630.852482</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1297730367789064</v>
+        <v>0.122300128451831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02294056407120345</v>
+        <v>0.03651891219172804</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3809499219.649018</v>
+        <v>4982197949.971448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.175424448719231</v>
+        <v>0.1381381491093532</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03639432103369331</v>
+        <v>0.05005199035289035</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3710214229.907203</v>
+        <v>3693181685.359065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1179055946020174</v>
+        <v>0.1824529966573647</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03121117700526486</v>
+        <v>0.03547134791917692</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2549492617.44335</v>
+        <v>2488225504.921625</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1935132474934424</v>
+        <v>0.1769648460867524</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03734004323024298</v>
+        <v>0.03694867418715612</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5092662171.898236</v>
+        <v>4655176565.226993</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09100286964283616</v>
+        <v>0.08694295786719448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02845886849644413</v>
+        <v>0.02327640784982121</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2819065470.737983</v>
+        <v>3840627227.285434</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1398647423799056</v>
+        <v>0.1222883886102423</v>
       </c>
       <c r="G14" t="n">
-        <v>0.028199879797307</v>
+        <v>0.0275323258591642</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1155838069.480545</v>
+        <v>1326447094.085973</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1068066337986656</v>
+        <v>0.06765315413345642</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04407441838390879</v>
+        <v>0.0399927665083444</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2624243886.610937</v>
+        <v>2095843453.045168</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08760939473206478</v>
+        <v>0.07805000589519483</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04729433043899145</v>
+        <v>0.0507961050628187</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3955227600.617141</v>
+        <v>4350786246.940119</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1494277780211337</v>
+        <v>0.1273700192818806</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05026632337649063</v>
+        <v>0.04379004497768775</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2621471545.586987</v>
+        <v>3549586769.452764</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1168275898746642</v>
+        <v>0.1404161135428471</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0225292432658201</v>
+        <v>0.0329005614484906</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1335300437.519122</v>
+        <v>875148408.433421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1589157095980027</v>
+        <v>0.1582422424777262</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02652951826281593</v>
+        <v>0.01792055355648773</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2592012946.847066</v>
+        <v>2781169941.219017</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1156272151849393</v>
+        <v>0.1474737588587214</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02061938443312041</v>
+        <v>0.03102627229456825</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1797109669.3926</v>
+        <v>1918722645.701658</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08325266230284015</v>
+        <v>0.0897256795919894</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03501848166754763</v>
+        <v>0.04261207163559944</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3889576828.798424</v>
+        <v>3211327283.984347</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08928563089104923</v>
+        <v>0.1380041200029889</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03660342155023909</v>
+        <v>0.05010401202588527</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1227631636.793918</v>
+        <v>1463288798.694543</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1360594432702266</v>
+        <v>0.1634108047807419</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0333393576510345</v>
+        <v>0.03339207046332204</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3060413207.60185</v>
+        <v>3430919758.209826</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1461607804179036</v>
+        <v>0.1484691443261576</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0292266105613799</v>
+        <v>0.03431608222474987</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1323549590.041616</v>
+        <v>1380024573.877363</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1115809971298683</v>
+        <v>0.07980952674793769</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02707514470890634</v>
+        <v>0.02101199799222353</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1381459162.602617</v>
+        <v>1304111136.935696</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1045639412888434</v>
+        <v>0.08899027199019272</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03861377821500011</v>
+        <v>0.02477651106789452</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3364551815.453354</v>
+        <v>3274685223.32922</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1472493022435922</v>
+        <v>0.1095647991298991</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02172600846280658</v>
+        <v>0.02596295281898453</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2379493814.685705</v>
+        <v>3656631993.29712</v>
       </c>
       <c r="F28" t="n">
-        <v>0.118299891824747</v>
+        <v>0.1129228607713485</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04958200517231208</v>
+        <v>0.04284853708287771</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5459777216.716371</v>
+        <v>4000564215.564913</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1277498876696419</v>
+        <v>0.13463994462141</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0320742389782575</v>
+        <v>0.03349242236964825</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2075512038.995082</v>
+        <v>1811159038.076826</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09029713535581844</v>
+        <v>0.1041801797711685</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02567043049231255</v>
+        <v>0.03041160425343907</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1269469623.129323</v>
+        <v>1181967291.020867</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1002720256453409</v>
+        <v>0.1032237478614584</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04441034417412714</v>
+        <v>0.04735767164521103</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1425325670.3825</v>
+        <v>1298465837.941343</v>
       </c>
       <c r="F32" t="n">
-        <v>0.120963783239232</v>
+        <v>0.09183426142765108</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03438531636489124</v>
+        <v>0.03608078360826263</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2264310405.421749</v>
+        <v>2575870028.586236</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1603906280560953</v>
+        <v>0.1752146112711312</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04557826552715581</v>
+        <v>0.05390544719062551</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1083405915.928651</v>
+        <v>1144145049.403663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1099356967646475</v>
+        <v>0.08935472289630729</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02455764290398677</v>
+        <v>0.02711030754049853</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1188039881.088857</v>
+        <v>868491638.4012289</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0820581193657838</v>
+        <v>0.1151594615337308</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04444555776901209</v>
+        <v>0.03481225287019685</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2669888755.293634</v>
+        <v>2261756143.328292</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1212889518779598</v>
+        <v>0.1161700078163237</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02593780149335929</v>
+        <v>0.02780359555686581</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2916745735.154972</v>
+        <v>2902174993.709256</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08892043366846263</v>
+        <v>0.1104482990693051</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02833985701437108</v>
+        <v>0.02862592231535314</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1988947050.472725</v>
+        <v>1767570442.012973</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08509196949511651</v>
+        <v>0.07746428837909716</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03303467478927596</v>
+        <v>0.02970930522437881</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1518920600.607436</v>
+        <v>1932065667.398975</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1793356104068174</v>
+        <v>0.1222004905373395</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02753455970332536</v>
+        <v>0.03061350281180748</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1523443275.642505</v>
+        <v>1112061562.447181</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09978571934930675</v>
+        <v>0.1606991251811181</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04654764394787425</v>
+        <v>0.03831984095768983</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2571912795.062129</v>
+        <v>2308948446.6161</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1590211290278997</v>
+        <v>0.1182577205536214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03697662308942798</v>
+        <v>0.03319051587588737</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3418040841.858891</v>
+        <v>3262328405.207593</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1088813290643603</v>
+        <v>0.09843332881014076</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03274692489847444</v>
+        <v>0.04353000321607663</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3017030914.513786</v>
+        <v>2753326803.761421</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1459306245528505</v>
+        <v>0.1605679281368311</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01673210438025605</v>
+        <v>0.01931064913033392</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2240723971.828228</v>
+        <v>1897864555.427651</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09373674871856089</v>
+        <v>0.06775393869972542</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02523319114648744</v>
+        <v>0.03328705183066604</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1941676272.47943</v>
+        <v>1940165782.918482</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1393181242188563</v>
+        <v>0.1927485663114565</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03627516478378416</v>
+        <v>0.0531257707859416</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4508514405.616342</v>
+        <v>3759922192.302295</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1314472506882701</v>
+        <v>0.139098059585417</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05489715072593543</v>
+        <v>0.03860913626851174</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5003795264.477712</v>
+        <v>4893896177.061378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1991680068595748</v>
+        <v>0.1653679780323985</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05533088508635148</v>
+        <v>0.05698476613413678</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3868504877.660633</v>
+        <v>4668413001.424055</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1005907368386006</v>
+        <v>0.08451651329169797</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03331420707490605</v>
+        <v>0.03923391509379932</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1823408257.864385</v>
+        <v>1212347329.387759</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1626913990734507</v>
+        <v>0.1241002389332555</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02928037964944916</v>
+        <v>0.04265897590819975</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2922431277.355642</v>
+        <v>2670078331.341071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1289353335502064</v>
+        <v>0.1427214844177503</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05002606103608844</v>
+        <v>0.04615830619861683</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1084426825.988049</v>
+        <v>1266758213.164064</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1718984275030593</v>
+        <v>0.1733308314448511</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05064838840549107</v>
+        <v>0.04338234386958371</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5243003726.866736</v>
+        <v>4510580613.77662</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1099327788572285</v>
+        <v>0.08766923427635463</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0523612450552234</v>
+        <v>0.05596227564727429</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2696173954.632607</v>
+        <v>3587791486.652162</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1673226698455503</v>
+        <v>0.1884825986401237</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0246309290967349</v>
+        <v>0.03273398926778585</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3278352129.419345</v>
+        <v>3225831932.325614</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131680141480768</v>
+        <v>0.1021983799379099</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05056227049116313</v>
+        <v>0.0403158724287136</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3908544914.403347</v>
+        <v>3872339302.892904</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2158628471201086</v>
+        <v>0.2071879700556565</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02372482612736783</v>
+        <v>0.02004488530765192</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1181802345.387198</v>
+        <v>1397647449.488559</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09948532754230029</v>
+        <v>0.1529477426415206</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05522837349813033</v>
+        <v>0.05830515763020627</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2882905357.791859</v>
+        <v>2896614973.0026</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1273779381367601</v>
+        <v>0.1182303212054526</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02553952432120668</v>
+        <v>0.02588217081932715</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1859264441.178272</v>
+        <v>1366206619.172534</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1732254478564447</v>
+        <v>0.1765120292111342</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03822067259255784</v>
+        <v>0.03511853536049229</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5006812921.330947</v>
+        <v>5227007600.666955</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08937777230504813</v>
+        <v>0.1278777966398879</v>
       </c>
       <c r="G59" t="n">
-        <v>0.033513819477943</v>
+        <v>0.04679161372760322</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2936644164.516108</v>
+        <v>2590934402.392132</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1264173957063238</v>
+        <v>0.1831800325355026</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02073262616291496</v>
+        <v>0.02069161903656112</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3039060290.480136</v>
+        <v>3196016878.089866</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1675182612029342</v>
+        <v>0.1623062738276011</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02895992580436785</v>
+        <v>0.0222236245136287</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1895189856.086959</v>
+        <v>2101386168.544315</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1834464946415508</v>
+        <v>0.1917125418194224</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03336704610136446</v>
+        <v>0.03516213454681998</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5337797791.371549</v>
+        <v>3811561259.729571</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08774729936893608</v>
+        <v>0.08046961398939004</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04545329304586734</v>
+        <v>0.03466871106856465</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5121994611.85212</v>
+        <v>5509602176.944435</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1803061280815719</v>
+        <v>0.1657409700908528</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02751605728642292</v>
+        <v>0.02979666025680316</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4609339892.997767</v>
+        <v>5860591357.054404</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1161763445650854</v>
+        <v>0.1686054434429164</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0246830636698799</v>
+        <v>0.02541486143755647</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4525495398.012548</v>
+        <v>4110876854.391</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1288346976552692</v>
+        <v>0.107700010895835</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03331370660607171</v>
+        <v>0.03485465699341473</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2502010899.453753</v>
+        <v>2247778949.427394</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06886826894648912</v>
+        <v>0.0635179881200328</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03311331083303205</v>
+        <v>0.05010745030300771</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4577423486.669024</v>
+        <v>4230666051.896</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1536787886053253</v>
+        <v>0.1552704442572939</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03775478895192844</v>
+        <v>0.04765853845026741</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1590400200.805561</v>
+        <v>1617309189.519341</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1556576934412955</v>
+        <v>0.1825034490726965</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03901332900762704</v>
+        <v>0.04564510467594254</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3479922651.631697</v>
+        <v>3702781467.657061</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09055632900148895</v>
+        <v>0.101650163822718</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04303229727449404</v>
+        <v>0.0440515402033844</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5268968085.935104</v>
+        <v>4438464356.786753</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1575873883900842</v>
+        <v>0.1713552567970661</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03185774117500099</v>
+        <v>0.02372972614334198</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1774746010.313864</v>
+        <v>1785315664.994328</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07039783965978692</v>
+        <v>0.06930722199604074</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04103130606212186</v>
+        <v>0.03597531742690404</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3538491760.011736</v>
+        <v>3089175460.018679</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08105984486621046</v>
+        <v>0.1081536764076619</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04976208048575419</v>
+        <v>0.03731250725205293</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3940798283.284455</v>
+        <v>3594134215.476656</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1404321813923016</v>
+        <v>0.1572479587585659</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02374312078447007</v>
+        <v>0.02238273383610507</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1522654884.581639</v>
+        <v>2465733968.80684</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1372584315833309</v>
+        <v>0.151718719772312</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02420072873419304</v>
+        <v>0.03684410889065854</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5005755237.251342</v>
+        <v>3718105275.063701</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1032096625477293</v>
+        <v>0.1113237692634866</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02066788064551926</v>
+        <v>0.03104039170168759</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2005583191.379153</v>
+        <v>1412935829.685656</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1703322136645341</v>
+        <v>0.1409587381024184</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02841852841040619</v>
+        <v>0.03044156372535247</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3220726185.983347</v>
+        <v>3601734833.883204</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09152914858244775</v>
+        <v>0.1330077214387768</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04388080199721708</v>
+        <v>0.05313568315467677</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1829352536.999768</v>
+        <v>1334134876.083327</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1504724966478121</v>
+        <v>0.1303598398018974</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03297640396166492</v>
+        <v>0.03836810097346523</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5488478762.75287</v>
+        <v>4674341739.018825</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08207240273602841</v>
+        <v>0.08085129408088618</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02652093265270719</v>
+        <v>0.0238946361290136</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3361270121.668659</v>
+        <v>5213077680.638533</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09037841949888606</v>
+        <v>0.09870681107687086</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02248276109653997</v>
+        <v>0.03003682556176976</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5608874720.813084</v>
+        <v>4640788114.677081</v>
       </c>
       <c r="F82" t="n">
-        <v>0.155705809207355</v>
+        <v>0.2124764562649573</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01976945148366176</v>
+        <v>0.02145228288523884</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1985723886.080954</v>
+        <v>2473241330.620548</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1197834696991204</v>
+        <v>0.1249410130676986</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02781807851020796</v>
+        <v>0.03958059001360542</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1813275462.633204</v>
+        <v>2085943134.620479</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1208559427709498</v>
+        <v>0.1006489082546765</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03288785977944395</v>
+        <v>0.04796362688416301</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2911314749.36615</v>
+        <v>2464113432.633082</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1735576800843844</v>
+        <v>0.1121834854556098</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04405520838668051</v>
+        <v>0.05554019984992375</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2417806349.593212</v>
+        <v>2625537745.118829</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1101115381506712</v>
+        <v>0.1406537158397099</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0179386051532244</v>
+        <v>0.01822727859189362</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>911948088.2324412</v>
+        <v>1398687843.898298</v>
       </c>
       <c r="F87" t="n">
-        <v>0.167768939184413</v>
+        <v>0.120334982248847</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04009321246948922</v>
+        <v>0.04135534255418191</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3653146927.924085</v>
+        <v>2522934405.606229</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1078163587901347</v>
+        <v>0.11551954110235</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0340889903329181</v>
+        <v>0.03307872721703124</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2859619288.692945</v>
+        <v>2966470043.134382</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1160051020588606</v>
+        <v>0.1074803102368754</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03223379063635455</v>
+        <v>0.02797582948875553</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1894655261.267887</v>
+        <v>1365807783.227269</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1092388031207043</v>
+        <v>0.1237072836375916</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05000281434550172</v>
+        <v>0.04404849676646194</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1371100291.782022</v>
+        <v>1565114872.194898</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1230782705678654</v>
+        <v>0.1482476518077677</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03756728969702502</v>
+        <v>0.04047313914778395</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2591127136.056193</v>
+        <v>2074723100.192043</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06634116840885178</v>
+        <v>0.1101377170461667</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03886338872007985</v>
+        <v>0.03850258578291495</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3739470783.714956</v>
+        <v>4463500926.85813</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1399357603560816</v>
+        <v>0.09504772254471809</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04247829540575082</v>
+        <v>0.04449339086295133</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2014968915.876575</v>
+        <v>1724407594.000102</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1596433829521535</v>
+        <v>0.1221252404453936</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03039628124534099</v>
+        <v>0.03892780128416327</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2215427462.888803</v>
+        <v>2030819700.400329</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1294633403832814</v>
+        <v>0.08418229977633448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04323905773719652</v>
+        <v>0.04541727161589854</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1894181935.650779</v>
+        <v>1928517084.249185</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1026895432156708</v>
+        <v>0.1102499582340538</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04508426312171731</v>
+        <v>0.03740116827938675</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5149147245.755309</v>
+        <v>4274712750.641151</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1411785028602267</v>
+        <v>0.1084364977878115</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02011274621973699</v>
+        <v>0.01898854880111683</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2853235722.640878</v>
+        <v>3233100735.222755</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08674691912580801</v>
+        <v>0.09026779518924884</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03256350371987566</v>
+        <v>0.02219227852660036</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2165960817.140427</v>
+        <v>2770513563.531575</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1190821037868937</v>
+        <v>0.126786835918777</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02936285677027609</v>
+        <v>0.02513868164009807</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3629736872.606781</v>
+        <v>3019075110.35631</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1298972661951265</v>
+        <v>0.1334105474654766</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01984595809810612</v>
+        <v>0.01735374594327854</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3277711738.974702</v>
+        <v>2576760500.137959</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1935578148418042</v>
+        <v>0.2192664793751354</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03828159600595566</v>
+        <v>0.0551717114644548</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_341.xlsx
+++ b/output/fit_clients/fit_round_341.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2185920238.001482</v>
+        <v>2372986379.487714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0824628816587199</v>
+        <v>0.09165262582454965</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03271131254814755</v>
+        <v>0.03364490746039248</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1948084275.053186</v>
+        <v>2566758680.305448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1416275806617742</v>
+        <v>0.1586394681361065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0395110728458767</v>
+        <v>0.04965182266109382</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4707927643.037374</v>
+        <v>3817164537.41972</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1560707677696888</v>
+        <v>0.1252417221275439</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03230968733156171</v>
+        <v>0.03000333484066717</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>177</v>
+      </c>
+      <c r="J4" t="n">
+        <v>340</v>
+      </c>
+      <c r="K4" t="n">
+        <v>67.39781121777442</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3329177924.161713</v>
+        <v>2572068456.060145</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09801580615287604</v>
+        <v>0.07160326835600349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03903440116065853</v>
+        <v>0.04405448391960112</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>135</v>
+      </c>
+      <c r="J5" t="n">
+        <v>340</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46.76138933234309</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2695575238.906192</v>
+        <v>2465552868.150055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134876533776825</v>
+        <v>0.09768382364509681</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04758415479261549</v>
+        <v>0.04263264901724168</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2561284682.618494</v>
+        <v>2407781074.983877</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06610638734436125</v>
+        <v>0.08498649282790005</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04533613550500917</v>
+        <v>0.03765332999574219</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3359379867.218041</v>
+        <v>2600133207.902889</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2071676540714129</v>
+        <v>0.1709677984510506</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03268382314893727</v>
+        <v>0.02534235518431019</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>89</v>
+      </c>
+      <c r="J8" t="n">
+        <v>340</v>
+      </c>
+      <c r="K8" t="n">
+        <v>44.25837528760113</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2055752630.852482</v>
+        <v>1435293174.455017</v>
       </c>
       <c r="F9" t="n">
-        <v>0.122300128451831</v>
+        <v>0.1416079803961122</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03651891219172804</v>
+        <v>0.02987679768339645</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4982197949.971448</v>
+        <v>4076363299.647057</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1381381491093532</v>
+        <v>0.2146860027821801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05005199035289035</v>
+        <v>0.04067223172946946</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>291</v>
+      </c>
+      <c r="J10" t="n">
+        <v>340</v>
+      </c>
+      <c r="K10" t="n">
+        <v>66.69349542401663</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3693181685.359065</v>
+        <v>3410478877.371406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1824529966573647</v>
+        <v>0.162347596369441</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03547134791917692</v>
+        <v>0.03271996397077265</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>139</v>
+      </c>
+      <c r="J11" t="n">
+        <v>338</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2488225504.921625</v>
+        <v>3190422034.825129</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1769648460867524</v>
+        <v>0.1427956611970614</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03694867418715612</v>
+        <v>0.04341707030170386</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4655176565.226993</v>
+        <v>5062032166.918052</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08694295786719448</v>
+        <v>0.08147507322467998</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02327640784982121</v>
+        <v>0.02143383918960239</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>177</v>
+      </c>
+      <c r="J13" t="n">
+        <v>341</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3840627227.285434</v>
+        <v>2586993352.292956</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1222883886102423</v>
+        <v>0.1249850969969231</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0275323258591642</v>
+        <v>0.03511381533531756</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1326447094.085973</v>
+        <v>1548127963.838804</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06765315413345642</v>
+        <v>0.08648852315199779</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0399927665083444</v>
+        <v>0.03468640805384986</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2095843453.045168</v>
+        <v>2328706810.328792</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07805000589519483</v>
+        <v>0.07842705336355779</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0507961050628187</v>
+        <v>0.03457169932992789</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4350786246.940119</v>
+        <v>4001355801.441909</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1273700192818806</v>
+        <v>0.1106342062676673</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04379004497768775</v>
+        <v>0.04506122523495608</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>161</v>
+      </c>
+      <c r="J17" t="n">
+        <v>340</v>
+      </c>
+      <c r="K17" t="n">
+        <v>66.26718977614307</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3549586769.452764</v>
+        <v>2702784491.094006</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1404161135428471</v>
+        <v>0.1149161455894129</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0329005614484906</v>
+        <v>0.02814732721855136</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>875148408.433421</v>
+        <v>1123248159.705385</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1582422424777262</v>
+        <v>0.1735691852172649</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01792055355648773</v>
+        <v>0.01984035777206821</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2781169941.219017</v>
+        <v>1957008384.01564</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1474737588587214</v>
+        <v>0.1407512527676363</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03102627229456825</v>
+        <v>0.02086144649592213</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1918722645.701658</v>
+        <v>1789882583.380254</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0897256795919894</v>
+        <v>0.07027193536104367</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04261207163559944</v>
+        <v>0.02820519853794744</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3211327283.984347</v>
+        <v>3078279620.382052</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1380041200029889</v>
+        <v>0.1447992730239546</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05010401202588527</v>
+        <v>0.0449400758112917</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1463288798.694543</v>
+        <v>992963823.2228942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1634108047807419</v>
+        <v>0.1599223793104409</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03339207046332204</v>
+        <v>0.04988602182369983</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3430919758.209826</v>
+        <v>2601939711.469084</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1484691443261576</v>
+        <v>0.1317338179786143</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03431608222474987</v>
+        <v>0.0248759384705287</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>101</v>
+      </c>
+      <c r="J24" t="n">
+        <v>340</v>
+      </c>
+      <c r="K24" t="n">
+        <v>38.43568876635263</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1380024573.877363</v>
+        <v>1339743199.547041</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07980952674793769</v>
+        <v>0.09629045119267929</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02101199799222353</v>
+        <v>0.03009626156704206</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1304111136.935696</v>
+        <v>1321615885.229121</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08899027199019272</v>
+        <v>0.1134206526673424</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02477651106789452</v>
+        <v>0.02716970042903078</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3274685223.32922</v>
+        <v>3130726912.009324</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1095647991298991</v>
+        <v>0.1355395880155013</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02596295281898453</v>
+        <v>0.02433770034880558</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>142</v>
+      </c>
+      <c r="J27" t="n">
+        <v>338</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3656631993.29712</v>
+        <v>3639336730.003064</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1129228607713485</v>
+        <v>0.1109898455719265</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04284853708287771</v>
+        <v>0.04754050030405414</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>74</v>
+      </c>
+      <c r="J28" t="n">
+        <v>341</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4000564215.564913</v>
+        <v>5150159555.967341</v>
       </c>
       <c r="F29" t="n">
-        <v>0.13463994462141</v>
+        <v>0.1155666499035363</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03349242236964825</v>
+        <v>0.04320215954222965</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>308</v>
+      </c>
+      <c r="J29" t="n">
+        <v>341</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1811159038.076826</v>
+        <v>1704672107.375728</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1041801797711685</v>
+        <v>0.1088544704182059</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03041160425343907</v>
+        <v>0.02740737486353553</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1181967291.020867</v>
+        <v>1119543807.92555</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1032237478614584</v>
+        <v>0.09920178730288889</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04735767164521103</v>
+        <v>0.03780008028564866</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1298465837.941343</v>
+        <v>1328066975.726183</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09183426142765108</v>
+        <v>0.1068455409463762</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03608078360826263</v>
+        <v>0.03346070705033607</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2575870028.586236</v>
+        <v>2930423723.180984</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1752146112711312</v>
+        <v>0.1797727200451365</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05390544719062551</v>
+        <v>0.05924838775039407</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1144145049.403663</v>
+        <v>1374902399.065268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08935472289630729</v>
+        <v>0.1172672367884406</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02711030754049853</v>
+        <v>0.0241579005282337</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>868491638.4012289</v>
+        <v>1108829341.996951</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1151594615337308</v>
+        <v>0.08098385750225606</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03481225287019685</v>
+        <v>0.03583118538150032</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2261756143.328292</v>
+        <v>2090388002.842118</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1161700078163237</v>
+        <v>0.1215456310798677</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02780359555686581</v>
+        <v>0.02187732281024249</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2902174993.709256</v>
+        <v>2778338194.094648</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1104482990693051</v>
+        <v>0.08118058711959654</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02862592231535314</v>
+        <v>0.03761142674816521</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1767570442.012973</v>
+        <v>1962160319.082677</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07746428837909716</v>
+        <v>0.1011910889224631</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02970930522437881</v>
+        <v>0.03138369442854188</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1932065667.398975</v>
+        <v>1700940233.676397</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1222004905373395</v>
+        <v>0.1801617960049302</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03061350281180748</v>
+        <v>0.02696126346553318</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1112061562.447181</v>
+        <v>1309546151.546906</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1606991251811181</v>
+        <v>0.1587141888698254</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03831984095768983</v>
+        <v>0.05751016114224427</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2308948446.6161</v>
+        <v>2761480830.385318</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1182577205536214</v>
+        <v>0.1293564690873282</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03319051587588737</v>
+        <v>0.03613019750484212</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3262328405.207593</v>
+        <v>4237564574.531175</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09843332881014076</v>
+        <v>0.07919209030268166</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04353000321607663</v>
+        <v>0.03947090841113054</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>148</v>
+      </c>
+      <c r="J42" t="n">
+        <v>341</v>
+      </c>
+      <c r="K42" t="n">
+        <v>73.85500826198367</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2753326803.761421</v>
+        <v>2463793646.447416</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1605679281368311</v>
+        <v>0.1546126559211336</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01931064913033392</v>
+        <v>0.02027637816266407</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1897864555.427651</v>
+        <v>2100891430.876066</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06775393869972542</v>
+        <v>0.08049169643109878</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03328705183066604</v>
+        <v>0.02726760681029301</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1940165782.918482</v>
+        <v>2074133057.436029</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1927485663114565</v>
+        <v>0.184865308849822</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0531257707859416</v>
+        <v>0.04386550484890959</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3759922192.302295</v>
+        <v>3901067402.574764</v>
       </c>
       <c r="F46" t="n">
-        <v>0.139098059585417</v>
+        <v>0.1569188123510799</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03860913626851174</v>
+        <v>0.05909239437117897</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>204</v>
+      </c>
+      <c r="J46" t="n">
+        <v>341</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4893896177.061378</v>
+        <v>3504819853.099217</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1653679780323985</v>
+        <v>0.1266541487732881</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05698476613413678</v>
+        <v>0.0535170781272042</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>152</v>
+      </c>
+      <c r="J47" t="n">
+        <v>340</v>
+      </c>
+      <c r="K47" t="n">
+        <v>60.72872345431769</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4668413001.424055</v>
+        <v>3464333745.7655</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08451651329169797</v>
+        <v>0.07297279758747523</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03923391509379932</v>
+        <v>0.02978992053815739</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>168</v>
+      </c>
+      <c r="J48" t="n">
+        <v>337</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1212347329.387759</v>
+        <v>1703095992.581606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1241002389332555</v>
+        <v>0.1266100650150679</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04265897590819975</v>
+        <v>0.03292373869711743</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2670078331.341071</v>
+        <v>2980170799.340564</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1427214844177503</v>
+        <v>0.1245866762815053</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04615830619861683</v>
+        <v>0.03889538169126383</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>112</v>
+      </c>
+      <c r="J50" t="n">
+        <v>339</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1266758213.164064</v>
+        <v>1007908601.4199</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1733308314448511</v>
+        <v>0.1474190302487272</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04338234386958371</v>
+        <v>0.0464430201411934</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4510580613.77662</v>
+        <v>4890064562.663105</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08766923427635463</v>
+        <v>0.1155574832478816</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05596227564727429</v>
+        <v>0.06042703576241215</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>204</v>
+      </c>
+      <c r="J52" t="n">
+        <v>341</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2302,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3587791486.652162</v>
+        <v>3788148731.418545</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1884825986401237</v>
+        <v>0.1434633484162037</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03273398926778585</v>
+        <v>0.03211950700492803</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>49</v>
+      </c>
+      <c r="J53" t="n">
+        <v>341</v>
+      </c>
+      <c r="K53" t="n">
+        <v>80.26939346156409</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3225831932.325614</v>
+        <v>3383550108.109851</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1021983799379099</v>
+        <v>0.1081720928866349</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0403158724287136</v>
+        <v>0.04957304486104471</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>180</v>
+      </c>
+      <c r="J54" t="n">
+        <v>340</v>
+      </c>
+      <c r="K54" t="n">
+        <v>62.63038693075136</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3872339302.892904</v>
+        <v>4622876056.094092</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2071879700556565</v>
+        <v>0.1751075676685066</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02004488530765192</v>
+        <v>0.03161766684714854</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>163</v>
+      </c>
+      <c r="J55" t="n">
+        <v>340</v>
+      </c>
+      <c r="K55" t="n">
+        <v>67.4950544972764</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1397647449.488559</v>
+        <v>1574243251.417775</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1529477426415206</v>
+        <v>0.109805494315992</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05830515763020627</v>
+        <v>0.05107471296515872</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2896614973.0026</v>
+        <v>3111092240.809963</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1182303212054526</v>
+        <v>0.1280018930061978</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02588217081932715</v>
+        <v>0.02579889477232928</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>140</v>
+      </c>
+      <c r="J57" t="n">
+        <v>340</v>
+      </c>
+      <c r="K57" t="n">
+        <v>54.33999395220393</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1366206619.172534</v>
+        <v>1795134947.286438</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1765120292111342</v>
+        <v>0.1831231538783372</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03511853536049229</v>
+        <v>0.03415685628691668</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5227007600.666955</v>
+        <v>5106082117.384165</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1278777966398879</v>
+        <v>0.09969903352952507</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04679161372760322</v>
+        <v>0.04727744646977532</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>164</v>
+      </c>
+      <c r="J59" t="n">
+        <v>341</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2590934402.392132</v>
+        <v>3403501144.344478</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1831800325355026</v>
+        <v>0.1496874989767322</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02069161903656112</v>
+        <v>0.02707888802044811</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>60</v>
+      </c>
+      <c r="J60" t="n">
+        <v>338</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3196016878.089866</v>
+        <v>2199001518.061411</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1623062738276011</v>
+        <v>0.1148494535278201</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0222236245136287</v>
+        <v>0.02438384711812286</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2101386168.544315</v>
+        <v>2005751340.481934</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1917125418194224</v>
+        <v>0.1372850610317408</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03516213454681998</v>
+        <v>0.04058716766150815</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3811561259.729571</v>
+        <v>3461869576.585196</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08046961398939004</v>
+        <v>0.09481063546630915</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03466871106856465</v>
+        <v>0.03799871723669927</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>167</v>
+      </c>
+      <c r="J63" t="n">
+        <v>340</v>
+      </c>
+      <c r="K63" t="n">
+        <v>62.49696781468489</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5509602176.944435</v>
+        <v>3774164296.070759</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1657409700908528</v>
+        <v>0.1364441458986002</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02979666025680316</v>
+        <v>0.0274825015542951</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>169</v>
+      </c>
+      <c r="J64" t="n">
+        <v>340</v>
+      </c>
+      <c r="K64" t="n">
+        <v>66.68562595703465</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5860591357.054404</v>
+        <v>4378216997.314474</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1686054434429164</v>
+        <v>0.1433644978528084</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02541486143755647</v>
+        <v>0.02320545318522153</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>264</v>
+      </c>
+      <c r="J65" t="n">
+        <v>341</v>
+      </c>
+      <c r="K65" t="n">
+        <v>67.6777130587562</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4110876854.391</v>
+        <v>4484005567.959722</v>
       </c>
       <c r="F66" t="n">
-        <v>0.107700010895835</v>
+        <v>0.1504315932172083</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03485465699341473</v>
+        <v>0.03208992703282901</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>168</v>
+      </c>
+      <c r="J66" t="n">
+        <v>341</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2247778949.427394</v>
+        <v>2455787486.829116</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0635179881200328</v>
+        <v>0.07835614515681659</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05010745030300771</v>
+        <v>0.04924902691670274</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4230666051.896</v>
+        <v>4181880539.383194</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1552704442572939</v>
+        <v>0.1222893971719837</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04765853845026741</v>
+        <v>0.03381166156343663</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>185</v>
+      </c>
+      <c r="J68" t="n">
+        <v>341</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1617309189.519341</v>
+        <v>2431463978.573653</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1825034490726965</v>
+        <v>0.1257082517147972</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04564510467594254</v>
+        <v>0.03673642122415086</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3702781467.657061</v>
+        <v>2656419421.034103</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101650163822718</v>
+        <v>0.09881698073867061</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0440515402033844</v>
+        <v>0.03429733838510649</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4438464356.786753</v>
+        <v>4848405794.402264</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1713552567970661</v>
+        <v>0.1246661655901093</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02372972614334198</v>
+        <v>0.02885279254538959</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>250</v>
+      </c>
+      <c r="J71" t="n">
+        <v>341</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1785315664.994328</v>
+        <v>1456929104.005615</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06930722199604074</v>
+        <v>0.1017170147368475</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03597531742690404</v>
+        <v>0.05137471109227996</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3089175460.018679</v>
+        <v>2664571655.307132</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1081536764076619</v>
+        <v>0.09314098015869132</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03731250725205293</v>
+        <v>0.05261691749427209</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3594134215.476656</v>
+        <v>3480544333.977339</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1572479587585659</v>
+        <v>0.1412322897055147</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02238273383610507</v>
+        <v>0.03066312046102428</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>92</v>
+      </c>
+      <c r="J74" t="n">
+        <v>341</v>
+      </c>
+      <c r="K74" t="n">
+        <v>77.71616605967961</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2465733968.80684</v>
+        <v>1950650097.715963</v>
       </c>
       <c r="F75" t="n">
-        <v>0.151718719772312</v>
+        <v>0.1574461846919088</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03684410889065854</v>
+        <v>0.03656748908716076</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3718105275.063701</v>
+        <v>4685917215.333266</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1113237692634866</v>
+        <v>0.09760303616209573</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03104039170168759</v>
+        <v>0.02665715864324007</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>161</v>
+      </c>
+      <c r="J76" t="n">
+        <v>340</v>
+      </c>
+      <c r="K76" t="n">
+        <v>66.23255234995392</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1412935829.685656</v>
+        <v>1413575327.198927</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1409587381024184</v>
+        <v>0.182521143388461</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03044156372535247</v>
+        <v>0.022966561112385</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3601734833.883204</v>
+        <v>3540533421.04658</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1330077214387768</v>
+        <v>0.1039913198718137</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05313568315467677</v>
+        <v>0.05658521271201188</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>169</v>
+      </c>
+      <c r="J78" t="n">
+        <v>341</v>
+      </c>
+      <c r="K78" t="n">
+        <v>68.66735369887267</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1334134876.083327</v>
+        <v>1923058140.540461</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1303598398018974</v>
+        <v>0.1374791947315606</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03836810097346523</v>
+        <v>0.02986984269950606</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3267,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4674341739.018825</v>
+        <v>5518487515.43052</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08085129408088618</v>
+        <v>0.07970107080113255</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0238946361290136</v>
+        <v>0.02570127015484993</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>167</v>
+      </c>
+      <c r="J80" t="n">
+        <v>340</v>
+      </c>
+      <c r="K80" t="n">
+        <v>52.65073857117983</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3304,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5213077680.638533</v>
+        <v>5123803047.936573</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09870681107687086</v>
+        <v>0.09139746892187019</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03003682556176976</v>
+        <v>0.03035235285800428</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>157</v>
+      </c>
+      <c r="J81" t="n">
+        <v>341</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4640788114.677081</v>
+        <v>4136851713.14396</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2124764562649573</v>
+        <v>0.1879051540813015</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02145228288523884</v>
+        <v>0.02703239324844035</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>243</v>
+      </c>
+      <c r="J82" t="n">
+        <v>341</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2473241330.620548</v>
+        <v>2348264536.771258</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1249410130676986</v>
+        <v>0.1357679349213755</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03958059001360542</v>
+        <v>0.04151403885832831</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2085943134.620479</v>
+        <v>1675301312.843978</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1006489082546765</v>
+        <v>0.08554437502189775</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04796362688416301</v>
+        <v>0.03502912472915758</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2464113432.633082</v>
+        <v>2806298998.912581</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1121834854556098</v>
+        <v>0.1237973699307666</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05554019984992375</v>
+        <v>0.03608891628534611</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>44</v>
+      </c>
+      <c r="J85" t="n">
+        <v>332</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2625537745.118829</v>
+        <v>2542517227.135063</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1406537158397099</v>
+        <v>0.128076941528659</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01822727859189362</v>
+        <v>0.01799859770070468</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1398687843.898298</v>
+        <v>1499982493.983018</v>
       </c>
       <c r="F87" t="n">
-        <v>0.120334982248847</v>
+        <v>0.1558996850048445</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04135534255418191</v>
+        <v>0.03764936507610159</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2522934405.606229</v>
+        <v>2291831343.000159</v>
       </c>
       <c r="F88" t="n">
-        <v>0.11551954110235</v>
+        <v>0.1123374091489329</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03307872721703124</v>
+        <v>0.03872497134424106</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2966470043.134382</v>
+        <v>2499951818.57508</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1074803102368754</v>
+        <v>0.102163184584249</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02797582948875553</v>
+        <v>0.04151507370841966</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1365807783.227269</v>
+        <v>1721448248.133202</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1237072836375916</v>
+        <v>0.1209480270074312</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04404849676646194</v>
+        <v>0.05082442729330143</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1565114872.194898</v>
+        <v>1496202783.575002</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1482476518077677</v>
+        <v>0.1291582793806015</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04047313914778395</v>
+        <v>0.05078080164266234</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2074723100.192043</v>
+        <v>2433555928.500986</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1101377170461667</v>
+        <v>0.09054656702636374</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03850258578291495</v>
+        <v>0.04104158919226814</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4463500926.85813</v>
+        <v>3773000191.645048</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09504772254471809</v>
+        <v>0.09201027874474611</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04449339086295133</v>
+        <v>0.05192725345399016</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>156</v>
+      </c>
+      <c r="J93" t="n">
+        <v>341</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1724407594.000102</v>
+        <v>2168550336.224957</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221252404453936</v>
+        <v>0.1658797395720897</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03892780128416327</v>
+        <v>0.03863316845461275</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2030819700.400329</v>
+        <v>2933415347.182761</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08418229977633448</v>
+        <v>0.1157858136112133</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04541727161589854</v>
+        <v>0.04079941816392724</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1928517084.249185</v>
+        <v>1503109328.392475</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1102499582340538</v>
+        <v>0.136416981253853</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03740116827938675</v>
+        <v>0.04140401255714864</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4274712750.641151</v>
+        <v>4913952747.067039</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1084364977878115</v>
+        <v>0.1420792179463577</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01898854880111683</v>
+        <v>0.028701381139914</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>175</v>
+      </c>
+      <c r="J97" t="n">
+        <v>341</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3233100735.222755</v>
+        <v>3424766295.332263</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09026779518924884</v>
+        <v>0.08002658008906191</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02219227852660036</v>
+        <v>0.02435447809580601</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>86</v>
+      </c>
+      <c r="J98" t="n">
+        <v>340</v>
+      </c>
+      <c r="K98" t="n">
+        <v>66.60064984172978</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2770513563.531575</v>
+        <v>2629576988.728165</v>
       </c>
       <c r="F99" t="n">
-        <v>0.126786835918777</v>
+        <v>0.1332595773718983</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02513868164009807</v>
+        <v>0.033461548892774</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3019075110.35631</v>
+        <v>3995643273.036696</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1334105474654766</v>
+        <v>0.1116930117193732</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01735374594327854</v>
+        <v>0.01706863324091326</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>153</v>
+      </c>
+      <c r="J100" t="n">
+        <v>341</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2576760500.137959</v>
+        <v>3596157785.488628</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2192664793751354</v>
+        <v>0.1400640977209296</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0551717114644548</v>
+        <v>0.03863919721138224</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>31</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
